--- a/static-data/src/main/resources/xlsx-conf/Gift.xlsx
+++ b/static-data/src/main/resources/xlsx-conf/Gift.xlsx
@@ -25,7 +25,7 @@
     <t>类型</t>
   </si>
   <si>
-    <t>是否叠加[1:叠加|2:不叠加]</t>
+    <t>是否叠加[1:Stack|2:UnStack]</t>
   </si>
   <si>
     <t>是否绑定</t>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,20 +92,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,8 +110,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,17 +127,25 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,9 +157,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,75 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,6 +485,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -514,21 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,148 +544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/static-data/src/main/resources/xlsx-conf/Gift.xlsx
+++ b/static-data/src/main/resources/xlsx-conf/Gift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>唯一id</t>
   </si>
@@ -25,13 +25,23 @@
     <t>类型</t>
   </si>
   <si>
-    <t>是否叠加[1:Stack|2:UnStack]</t>
+    <t>是否叠加
+["1|Stack|叠加","2|UnStack|非叠加"]</t>
   </si>
   <si>
     <t>是否绑定</t>
   </si>
   <si>
-    <t>参数1</t>
+    <t>整数数组</t>
+  </si>
+  <si>
+    <t>浮点数数组</t>
+  </si>
+  <si>
+    <t>参数3字符串数组</t>
+  </si>
+  <si>
+    <t>JSONArray</t>
   </si>
   <si>
     <t>int</t>
@@ -46,6 +56,15 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -64,16 +83,40 @@
     <t>param1</t>
   </si>
   <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>param4</t>
+  </si>
+  <si>
     <t>普通礼包</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>[1.11,2.2,3.3]</t>
+  </si>
+  <si>
+    <t>["p1","p2","p3"]</t>
+  </si>
+  <si>
+    <t>[{"key1","val"}]</t>
   </si>
   <si>
     <t>超级礼包</t>
   </si>
   <si>
+    <t>[{"key2","val"}]</t>
+  </si>
+  <si>
     <t>终极礼包</t>
+  </si>
+  <si>
+    <t>[{"key3","val"}]</t>
   </si>
 </sst>
 </file>
@@ -83,8 +126,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,7 +139,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,29 +190,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -141,11 +197,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +223,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,12 +231,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -180,16 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,43 +277,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,12 +303,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,37 +351,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,115 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +488,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,26 +524,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,11 +576,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,154 +587,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,20 +1058,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="9.71666666666667" customWidth="1"/>
     <col min="4" max="4" width="62.4916666666667" customWidth="1"/>
     <col min="5" max="5" width="10.7333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.0666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.2666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="27" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1084,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1044,53 +1093,80 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1102,15 +1178,24 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1122,15 +1207,24 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1139,10 +1233,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/static-data/src/main/resources/xlsx-conf/Gift.xlsx
+++ b/static-data/src/main/resources/xlsx-conf/Gift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowWidth="32760" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="gift" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>唯一id</t>
   </si>
@@ -41,9 +41,6 @@
     <t>参数3字符串数组</t>
   </si>
   <si>
-    <t>JSONArray</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>string[]</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>param3</t>
   </si>
   <si>
-    <t>param4</t>
-  </si>
-  <si>
     <t>普通礼包</t>
   </si>
   <si>
@@ -104,19 +95,10 @@
     <t>["p1","p2","p3"]</t>
   </si>
   <si>
-    <t>[{"key1","val"}]</t>
-  </si>
-  <si>
     <t>超级礼包</t>
   </si>
   <si>
-    <t>[{"key2","val"}]</t>
-  </si>
-  <si>
     <t>终极礼包</t>
-  </si>
-  <si>
-    <t>[{"key3","val"}]</t>
   </si>
 </sst>
 </file>
@@ -124,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,29 +135,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,69 +250,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -262,21 +259,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,12 +279,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,163 +405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,13 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,9 +556,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,142 +569,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,23 +1040,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="9.71666666666667" customWidth="1"/>
     <col min="4" max="4" width="62.4916666666667" customWidth="1"/>
     <col min="5" max="5" width="10.7333333333333" customWidth="1"/>
     <col min="7" max="7" width="15.0666666666667" customWidth="1"/>
     <col min="8" max="8" width="15.2666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" ht="27" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,74 +1080,65 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1178,24 +1150,21 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3002</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1207,24 +1176,21 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1236,16 +1202,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
